--- a/predictions полгода до/Прогнозы_ETS_EM4dt.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_EM4dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21877901.66970264</v>
+        <v>20531878.71379555</v>
       </c>
       <c r="C2" t="n">
-        <v>21253715.44074284</v>
+        <v>17444743.1051563</v>
       </c>
       <c r="D2" t="n">
-        <v>18357164.52856979</v>
+        <v>18998147.16897763</v>
       </c>
       <c r="E2" t="n">
-        <v>20133369.6677217</v>
+        <v>19199942.56672101</v>
       </c>
       <c r="F2" t="n">
-        <v>21371042.12390411</v>
+        <v>19139234.47711824</v>
       </c>
       <c r="G2" t="n">
-        <v>20767100.47004511</v>
+        <v>16120106.64658079</v>
       </c>
       <c r="H2" t="n">
-        <v>17889985.54048524</v>
+        <v>17738197.42648354</v>
       </c>
       <c r="I2" t="n">
-        <v>19684850.36591158</v>
+        <v>18001520.65757466</v>
       </c>
       <c r="J2" t="n">
-        <v>20940437.21823177</v>
+        <v>17999335.77808046</v>
       </c>
       <c r="K2" t="n">
-        <v>20353694.43815136</v>
+        <v>15035873.26086644</v>
       </c>
       <c r="L2" t="n">
-        <v>17493091.43882773</v>
+        <v>16706911.01858613</v>
       </c>
       <c r="M2" t="n">
-        <v>19303808.68829279</v>
+        <v>17020595.63799206</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11234695.67508775</v>
+        <v>9170053.964799404</v>
       </c>
       <c r="C3" t="n">
-        <v>11740965.92801031</v>
+        <v>8869343.146225056</v>
       </c>
       <c r="D3" t="n">
-        <v>12199288.46234022</v>
+        <v>8628564.999056935</v>
       </c>
       <c r="E3" t="n">
-        <v>12612867.61217263</v>
+        <v>8437036.302751645</v>
       </c>
       <c r="F3" t="n">
-        <v>12989384.33134501</v>
+        <v>8282710.353612512</v>
       </c>
       <c r="G3" t="n">
-        <v>13325852.9180296</v>
+        <v>8159468.257275542</v>
       </c>
       <c r="H3" t="n">
-        <v>13630805.53642343</v>
+        <v>8060665.087897323</v>
       </c>
       <c r="I3" t="n">
-        <v>13905856.41597802</v>
+        <v>7982716.373823956</v>
       </c>
       <c r="J3" t="n">
-        <v>14157250.28071678</v>
+        <v>7919254.41047036</v>
       </c>
       <c r="K3" t="n">
-        <v>14380704.18332123</v>
+        <v>7868703.50276182</v>
       </c>
       <c r="L3" t="n">
-        <v>14583578.57727278</v>
+        <v>7828053.284286345</v>
       </c>
       <c r="M3" t="n">
-        <v>14766429.36805041</v>
+        <v>7796626.930935173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5108227.520102202</v>
+        <v>14666625.56466313</v>
       </c>
       <c r="C4" t="n">
-        <v>5108996.993273809</v>
+        <v>17119124.85011693</v>
       </c>
       <c r="D4" t="n">
-        <v>5109362.467146578</v>
+        <v>19081531.93521143</v>
       </c>
       <c r="E4" t="n">
-        <v>5109960.461614328</v>
+        <v>20650840.57632908</v>
       </c>
       <c r="F4" t="n">
-        <v>5109868.954708531</v>
+        <v>21907001.86341824</v>
       </c>
       <c r="G4" t="n">
-        <v>5110603.871174537</v>
+        <v>22911451.14726746</v>
       </c>
       <c r="H4" t="n">
-        <v>5110935.515855246</v>
+        <v>23715413.17953711</v>
       </c>
       <c r="I4" t="n">
-        <v>5111500.393328318</v>
+        <v>24357961.73714433</v>
       </c>
       <c r="J4" t="n">
-        <v>5111376.466631517</v>
+        <v>24872711.7244106</v>
       </c>
       <c r="K4" t="n">
-        <v>5112079.645832138</v>
+        <v>25284029.38197859</v>
       </c>
       <c r="L4" t="n">
-        <v>5112380.221404045</v>
+        <v>25613484.0440759</v>
       </c>
       <c r="M4" t="n">
-        <v>5112914.683858366</v>
+        <v>25876425.05022014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3941432.7318257</v>
+        <v>24947024.54091355</v>
       </c>
       <c r="C5" t="n">
-        <v>5489021.006217778</v>
+        <v>21079400.16385929</v>
       </c>
       <c r="D5" t="n">
-        <v>7005699.106751841</v>
+        <v>24185951.58940697</v>
       </c>
       <c r="E5" t="n">
-        <v>8492028.295957057</v>
+        <v>24608463.35986985</v>
       </c>
       <c r="F5" t="n">
-        <v>9948497.564599376</v>
+        <v>28828384.17777214</v>
       </c>
       <c r="G5" t="n">
-        <v>11375935.60743058</v>
+        <v>24883131.49345063</v>
       </c>
       <c r="H5" t="n">
-        <v>12774866.65974639</v>
+        <v>27913607.20016736</v>
       </c>
       <c r="I5" t="n">
-        <v>14145803.91683462</v>
+        <v>28261564.78802097</v>
       </c>
       <c r="J5" t="n">
-        <v>15489189.2636362</v>
+        <v>32408422.52837439</v>
       </c>
       <c r="K5" t="n">
-        <v>16805805.23126446</v>
+        <v>28391568.049035</v>
       </c>
       <c r="L5" t="n">
-        <v>18096130.81471807</v>
+        <v>31351874.01719461</v>
       </c>
       <c r="M5" t="n">
-        <v>19360634.87386108</v>
+        <v>31631065.28141145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8381872.825461715</v>
+        <v>1995690.78705961</v>
       </c>
       <c r="C6" t="n">
-        <v>11040841.54880197</v>
+        <v>4167041.346314696</v>
       </c>
       <c r="D6" t="n">
-        <v>10090482.26407382</v>
+        <v>1608661.695677162</v>
       </c>
       <c r="E6" t="n">
-        <v>10324340.82596495</v>
+        <v>3093983.649414071</v>
       </c>
       <c r="F6" t="n">
-        <v>9622790.831344884</v>
+        <v>2022855.894084931</v>
       </c>
       <c r="G6" t="n">
-        <v>12256940.18026336</v>
+        <v>4192528.285562399</v>
       </c>
       <c r="H6" t="n">
-        <v>11282257.92888878</v>
+        <v>1632574.138636089</v>
       </c>
       <c r="I6" t="n">
-        <v>11492280.00334756</v>
+        <v>3116418.863101625</v>
       </c>
       <c r="J6" t="n">
-        <v>10767370.27052732</v>
+        <v>2043905.136693508</v>
       </c>
       <c r="K6" t="n">
-        <v>13378627.09510345</v>
+        <v>4212277.177664128</v>
       </c>
       <c r="L6" t="n">
-        <v>12381510.18858531</v>
+        <v>1651103.011455808</v>
       </c>
       <c r="M6" t="n">
-        <v>12569546.31934109</v>
+        <v>3133803.08527474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2347205.359757785</v>
+        <v>8441870.568420134</v>
       </c>
       <c r="C7" t="n">
-        <v>3315114.256459238</v>
+        <v>8526557.756181652</v>
       </c>
       <c r="D7" t="n">
-        <v>1575154.860629552</v>
+        <v>8610061.909835892</v>
       </c>
       <c r="E7" t="n">
-        <v>3314670.803813508</v>
+        <v>8691315.28884111</v>
       </c>
       <c r="F7" t="n">
-        <v>2520402.523558151</v>
+        <v>8770624.921474954</v>
       </c>
       <c r="G7" t="n">
-        <v>3475674.016783155</v>
+        <v>8848718.945685962</v>
       </c>
       <c r="H7" t="n">
-        <v>1723999.310905817</v>
+        <v>8925762.161584426</v>
       </c>
       <c r="I7" t="n">
-        <v>3452654.756538325</v>
+        <v>9000684.176842293</v>
       </c>
       <c r="J7" t="n">
-        <v>2648318.419476514</v>
+        <v>9073789.421132447</v>
       </c>
       <c r="K7" t="n">
-        <v>3594256.475869752</v>
+        <v>9145803.485913638</v>
       </c>
       <c r="L7" t="n">
-        <v>1833929.351281711</v>
+        <v>9216888.675876178</v>
       </c>
       <c r="M7" t="n">
-        <v>3554563.705552621</v>
+        <v>9285972.153317653</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1600484.429613747</v>
+        <v>18022067.14889356</v>
       </c>
       <c r="C8" t="n">
-        <v>1208414.572394211</v>
+        <v>15090932.63649595</v>
       </c>
       <c r="D8" t="n">
-        <v>1021189.275780637</v>
+        <v>16951862.90073089</v>
       </c>
       <c r="E8" t="n">
-        <v>1191650.799547586</v>
+        <v>17222557.30937732</v>
       </c>
       <c r="F8" t="n">
-        <v>1637430.116255313</v>
+        <v>18023921.07583297</v>
       </c>
       <c r="G8" t="n">
-        <v>1244579.952762473</v>
+        <v>15092415.82956976</v>
       </c>
       <c r="H8" t="n">
-        <v>1056590.830226496</v>
+        <v>16953049.49640919</v>
       </c>
       <c r="I8" t="n">
-        <v>1226304.660350969</v>
+        <v>17223506.61889652</v>
       </c>
       <c r="J8" t="n">
-        <v>1671352.074976555</v>
+        <v>18024680.54983049</v>
       </c>
       <c r="K8" t="n">
-        <v>1277785.46743844</v>
+        <v>15093023.42987424</v>
       </c>
       <c r="L8" t="n">
-        <v>1089095.032414722</v>
+        <v>16953535.59353853</v>
       </c>
       <c r="M8" t="n">
-        <v>1258122.362025013</v>
+        <v>17223895.51010906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2635670.231786012</v>
+        <v>27184843.96550404</v>
       </c>
       <c r="C9" t="n">
-        <v>2635903.997699106</v>
+        <v>26556320.17124835</v>
       </c>
       <c r="D9" t="n">
-        <v>2636304.097877059</v>
+        <v>27396937.14983767</v>
       </c>
       <c r="E9" t="n">
-        <v>2636366.949505645</v>
+        <v>25927351.9780404</v>
       </c>
       <c r="F9" t="n">
-        <v>2636844.550783838</v>
+        <v>29042467.10313496</v>
       </c>
       <c r="G9" t="n">
-        <v>2637053.510508981</v>
+        <v>28376790.01642936</v>
       </c>
       <c r="H9" t="n">
-        <v>2637429.328502224</v>
+        <v>29180996.78501208</v>
       </c>
       <c r="I9" t="n">
-        <v>2637468.410880352</v>
+        <v>27675729.62367077</v>
       </c>
       <c r="J9" t="n">
-        <v>2637922.745007174</v>
+        <v>30755876.41494934</v>
       </c>
       <c r="K9" t="n">
-        <v>2638108.929073742</v>
+        <v>30055930.37672247</v>
       </c>
       <c r="L9" t="n">
-        <v>2638462.452518968</v>
+        <v>30826553.5881204</v>
       </c>
       <c r="M9" t="n">
-        <v>2638479.711296709</v>
+        <v>29288374.55573791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4720755.949527825</v>
+        <v>27184879.02029604</v>
       </c>
       <c r="C10" t="n">
-        <v>5903723.345290909</v>
+        <v>32476709.0306517</v>
       </c>
       <c r="D10" t="n">
-        <v>4536045.856435004</v>
+        <v>37663297.57092234</v>
       </c>
       <c r="E10" t="n">
-        <v>4646297.343862709</v>
+        <v>42747430.26738387</v>
       </c>
       <c r="F10" t="n">
-        <v>5065907.946356207</v>
+        <v>47728025.49263895</v>
       </c>
       <c r="G10" t="n">
-        <v>6205173.925548901</v>
+        <v>52608620.71207272</v>
       </c>
       <c r="H10" t="n">
-        <v>4799328.274537496</v>
+        <v>57392206.60120066</v>
       </c>
       <c r="I10" t="n">
-        <v>4876244.261273089</v>
+        <v>62081403.99448913</v>
       </c>
       <c r="J10" t="n">
-        <v>5266740.137155794</v>
+        <v>66674969.77155041</v>
       </c>
       <c r="K10" t="n">
-        <v>6380577.750551604</v>
+        <v>71176283.13756233</v>
       </c>
       <c r="L10" t="n">
-        <v>4952523.346020241</v>
+        <v>75588179.67590196</v>
       </c>
       <c r="M10" t="n">
-        <v>5010042.540337081</v>
+        <v>79913128.2335474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3850259.900307134</v>
+        <v>15668503.96348104</v>
       </c>
       <c r="C11" t="n">
-        <v>2455919.779206389</v>
+        <v>16480202.86495133</v>
       </c>
       <c r="D11" t="n">
-        <v>4784878.928048234</v>
+        <v>18224601.11589995</v>
       </c>
       <c r="E11" t="n">
-        <v>2091672.457861018</v>
+        <v>17770969.21760947</v>
       </c>
       <c r="F11" t="n">
-        <v>3852939.219156642</v>
+        <v>18051965.7476303</v>
       </c>
       <c r="G11" t="n">
-        <v>2458542.195772969</v>
+        <v>18815977.10148086</v>
       </c>
       <c r="H11" t="n">
-        <v>4787445.650799405</v>
+        <v>20513641.92214156</v>
       </c>
       <c r="I11" t="n">
-        <v>2094184.669599359</v>
+        <v>20014211.62121793</v>
       </c>
       <c r="J11" t="n">
-        <v>3855398.07756485</v>
+        <v>20250326.06852357</v>
       </c>
       <c r="K11" t="n">
-        <v>2460948.833947349</v>
+        <v>20970353.32613851</v>
       </c>
       <c r="L11" t="n">
-        <v>4789801.177772023</v>
+        <v>22624914.07041442</v>
       </c>
       <c r="M11" t="n">
-        <v>2096490.17084911</v>
+        <v>22083242.1057987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739271.9550087145</v>
+        <v>37686440.74304589</v>
       </c>
       <c r="C12" t="n">
-        <v>430719.7113137224</v>
+        <v>37719942.53237324</v>
       </c>
       <c r="D12" t="n">
-        <v>265366.5616145125</v>
+        <v>41574913.38631126</v>
       </c>
       <c r="E12" t="n">
-        <v>355256.9537740503</v>
+        <v>41606732.94017897</v>
       </c>
       <c r="F12" t="n">
-        <v>741162.8441469655</v>
+        <v>37688481.41593137</v>
       </c>
       <c r="G12" t="n">
-        <v>432444.4896337095</v>
+        <v>37721575.07068168</v>
       </c>
       <c r="H12" t="n">
-        <v>266939.8216184538</v>
+        <v>41576219.41695805</v>
       </c>
       <c r="I12" t="n">
-        <v>356692.0060421122</v>
+        <v>41607777.76469643</v>
       </c>
       <c r="J12" t="n">
-        <v>742471.8299515436</v>
+        <v>37689317.27554537</v>
       </c>
       <c r="K12" t="n">
-        <v>433638.4836607709</v>
+        <v>37722243.7583729</v>
       </c>
       <c r="L12" t="n">
-        <v>268028.925665016</v>
+        <v>41576754.36711104</v>
       </c>
       <c r="M12" t="n">
-        <v>357685.4344825856</v>
+        <v>41608205.72481884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1450796.429884435</v>
+        <v>39769759.88610135</v>
       </c>
       <c r="C13" t="n">
-        <v>1611106.77407492</v>
+        <v>36224136.97354208</v>
       </c>
       <c r="D13" t="n">
-        <v>1768322.063541916</v>
+        <v>40598175.91446943</v>
       </c>
       <c r="E13" t="n">
-        <v>1922277.914358124</v>
+        <v>37582379.26562564</v>
       </c>
       <c r="F13" t="n">
-        <v>2073305.003354635</v>
+        <v>39771685.25874606</v>
       </c>
       <c r="G13" t="n">
-        <v>2221159.621454423</v>
+        <v>36225677.27609985</v>
       </c>
       <c r="H13" t="n">
-        <v>2366168.410494525</v>
+        <v>40599408.16006927</v>
       </c>
       <c r="I13" t="n">
-        <v>2508161.999810535</v>
+        <v>37583365.06494842</v>
       </c>
       <c r="J13" t="n">
-        <v>2647466.179275675</v>
+        <v>39772473.90047861</v>
       </c>
       <c r="K13" t="n">
-        <v>2783832.450637814</v>
+        <v>36226308.19130536</v>
       </c>
       <c r="L13" t="n">
-        <v>2917582.762385118</v>
+        <v>40599912.89368925</v>
       </c>
       <c r="M13" t="n">
-        <v>3048543.144413169</v>
+        <v>37583768.85300887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7818.075216242751</v>
+        <v>3158349.217349671</v>
       </c>
       <c r="C14" t="n">
-        <v>-17169.29643404579</v>
+        <v>4254507.003322287</v>
       </c>
       <c r="D14" t="n">
-        <v>-47472.01454052492</v>
+        <v>5328817.97347048</v>
       </c>
       <c r="E14" t="n">
-        <v>29052.93396729602</v>
+        <v>6381471.165326286</v>
       </c>
       <c r="F14" t="n">
-        <v>7461.997537476185</v>
+        <v>7413047.357608351</v>
       </c>
       <c r="G14" t="n">
-        <v>-17517.81694432567</v>
+        <v>8424042.162405511</v>
       </c>
       <c r="H14" t="n">
-        <v>-47813.13827090448</v>
+        <v>9414894.792488756</v>
       </c>
       <c r="I14" t="n">
-        <v>28719.05003221679</v>
+        <v>10385760.16491576</v>
       </c>
       <c r="J14" t="n">
-        <v>7135.199744839614</v>
+        <v>11337185.6208938</v>
       </c>
       <c r="K14" t="n">
-        <v>-17837.67898634572</v>
+        <v>12269634.00429295</v>
       </c>
       <c r="L14" t="n">
-        <v>-48126.21176231273</v>
+        <v>13183512.4155614</v>
       </c>
       <c r="M14" t="n">
-        <v>28412.62101549587</v>
+        <v>14078944.3022014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>893764.8043850125</v>
+        <v>3929844.691697681</v>
       </c>
       <c r="C15" t="n">
-        <v>939534.5746775856</v>
+        <v>3784828.298362324</v>
       </c>
       <c r="D15" t="n">
-        <v>981940.1905018302</v>
+        <v>3876912.11374121</v>
       </c>
       <c r="E15" t="n">
-        <v>1021402.716894192</v>
+        <v>4034954.116789845</v>
       </c>
       <c r="F15" t="n">
-        <v>1058087.83061823</v>
+        <v>4207952.937659537</v>
       </c>
       <c r="G15" t="n">
-        <v>1092199.114686908</v>
+        <v>4057374.322366169</v>
       </c>
       <c r="H15" t="n">
-        <v>1123773.397390194</v>
+        <v>4144007.161366992</v>
       </c>
       <c r="I15" t="n">
-        <v>1153173.058422153</v>
+        <v>4296707.208683096</v>
       </c>
       <c r="J15" t="n">
-        <v>1180509.252845975</v>
+        <v>4464470.914030518</v>
       </c>
       <c r="K15" t="n">
-        <v>1205934.910211758</v>
+        <v>4308761.886599026</v>
       </c>
       <c r="L15" t="n">
-        <v>1229439.799138129</v>
+        <v>4390366.922756711</v>
       </c>
       <c r="M15" t="n">
-        <v>1251342.578464913</v>
+        <v>4538139.724317721</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1267560.105075578</v>
+        <v>10889574.62502643</v>
       </c>
       <c r="C16" t="n">
-        <v>1409165.457449947</v>
+        <v>11097429.69391855</v>
       </c>
       <c r="D16" t="n">
-        <v>1547808.664307279</v>
+        <v>11310214.62647182</v>
       </c>
       <c r="E16" t="n">
-        <v>1683770.305493103</v>
+        <v>11229276.72544485</v>
       </c>
       <c r="F16" t="n">
-        <v>1816987.455901263</v>
+        <v>11288889.22403277</v>
       </c>
       <c r="G16" t="n">
-        <v>1947604.059103437</v>
+        <v>11488757.71155917</v>
       </c>
       <c r="H16" t="n">
-        <v>2075478.295815206</v>
+        <v>11693715.80016196</v>
       </c>
       <c r="I16" t="n">
-        <v>2200886.350220701</v>
+        <v>11605107.59773568</v>
       </c>
       <c r="J16" t="n">
-        <v>2323760.989467214</v>
+        <v>11657203.20651099</v>
       </c>
       <c r="K16" t="n">
-        <v>2444241.935536386</v>
+        <v>11849705.14746856</v>
       </c>
       <c r="L16" t="n">
-        <v>2562183.231987115</v>
+        <v>12047444.02577247</v>
       </c>
       <c r="M16" t="n">
-        <v>2677857.008591505</v>
+        <v>11951761.00248509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7202841.402165114</v>
+        <v>4836074.121026552</v>
       </c>
       <c r="C17" t="n">
-        <v>7943786.598160708</v>
+        <v>4909694.196987428</v>
       </c>
       <c r="D17" t="n">
-        <v>8670513.972816935</v>
+        <v>4982437.839621967</v>
       </c>
       <c r="E17" t="n">
-        <v>9381917.059392296</v>
+        <v>5052959.949821751</v>
       </c>
       <c r="F17" t="n">
-        <v>10079804.47736791</v>
+        <v>5122101.686210346</v>
       </c>
       <c r="G17" t="n">
-        <v>10763198.60542418</v>
+        <v>5189911.697325621</v>
       </c>
       <c r="H17" t="n">
-        <v>11433526.16967704</v>
+        <v>5256963.294695953</v>
       </c>
       <c r="I17" t="n">
-        <v>12089657.67350973</v>
+        <v>5321908.981886567</v>
       </c>
       <c r="J17" t="n">
-        <v>12733379.16722018</v>
+        <v>5385587.568891451</v>
       </c>
       <c r="K17" t="n">
-        <v>13363690.91178184</v>
+        <v>5448045.403326502</v>
       </c>
       <c r="L17" t="n">
-        <v>13981997.95804862</v>
+        <v>5509853.542536651</v>
       </c>
       <c r="M17" t="n">
-        <v>14587149.56773594</v>
+        <v>5569662.281692796</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1177416.953745675</v>
+        <v>3223638.781256217</v>
       </c>
       <c r="C18" t="n">
-        <v>1700941.545813386</v>
+        <v>3459472.498550479</v>
       </c>
       <c r="D18" t="n">
-        <v>1155050.951826226</v>
+        <v>3164135.568523141</v>
       </c>
       <c r="E18" t="n">
-        <v>1220402.214044831</v>
+        <v>3202035.952216855</v>
       </c>
       <c r="F18" t="n">
-        <v>1220937.394575379</v>
+        <v>3239025.203941027</v>
       </c>
       <c r="G18" t="n">
-        <v>1743591.577640977</v>
+        <v>3473586.457375818</v>
       </c>
       <c r="H18" t="n">
-        <v>1196847.982835456</v>
+        <v>3177082.296804563</v>
       </c>
       <c r="I18" t="n">
-        <v>1261363.304255705</v>
+        <v>3213911.980428874</v>
       </c>
       <c r="J18" t="n">
-        <v>1261079.262807426</v>
+        <v>3249919.079445855</v>
       </c>
       <c r="K18" t="n">
-        <v>1782930.608337266</v>
+        <v>3483579.404630237</v>
       </c>
       <c r="L18" t="n">
-        <v>1235400.232750125</v>
+        <v>3186248.822967393</v>
       </c>
       <c r="M18" t="n">
-        <v>1299144.50900774</v>
+        <v>3222320.430884436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19869.43376132219</v>
+        <v>5065339.311978693</v>
       </c>
       <c r="C19" t="n">
-        <v>-100630.0390033785</v>
+        <v>3839771.381022385</v>
       </c>
       <c r="D19" t="n">
-        <v>18265.57990841701</v>
+        <v>4826565.112363425</v>
       </c>
       <c r="E19" t="n">
-        <v>-56098.17322877486</v>
+        <v>5547368.768400775</v>
       </c>
       <c r="F19" t="n">
-        <v>-45303.04444832399</v>
+        <v>5064906.616156412</v>
       </c>
       <c r="G19" t="n">
-        <v>-123249.2525572509</v>
+        <v>3839425.224354987</v>
       </c>
       <c r="H19" t="n">
-        <v>-1850.668157657266</v>
+        <v>4826288.187021849</v>
       </c>
       <c r="I19" t="n">
-        <v>-73988.42548233115</v>
+        <v>5547147.228121389</v>
       </c>
       <c r="J19" t="n">
-        <v>-61213.62203936362</v>
+        <v>5064729.383928001</v>
       </c>
       <c r="K19" t="n">
-        <v>-137399.2195723986</v>
+        <v>3839283.438568337</v>
       </c>
       <c r="L19" t="n">
-        <v>-14434.84779438683</v>
+        <v>4826174.758389392</v>
       </c>
       <c r="M19" t="n">
-        <v>-85180.08246357723</v>
+        <v>5547056.485212913</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1717215.321947643</v>
+        <v>1716280.920210646</v>
       </c>
       <c r="C20" t="n">
-        <v>2171828.978244147</v>
+        <v>2216976.287641768</v>
       </c>
       <c r="D20" t="n">
-        <v>1913944.088873763</v>
+        <v>2861920.21763208</v>
       </c>
       <c r="E20" t="n">
-        <v>2378683.030233271</v>
+        <v>2708885.814283626</v>
       </c>
       <c r="F20" t="n">
-        <v>1717316.629455508</v>
+        <v>1715881.667998264</v>
       </c>
       <c r="G20" t="n">
-        <v>2171910.024552057</v>
+        <v>2216654.627758074</v>
       </c>
       <c r="H20" t="n">
-        <v>1914008.926161387</v>
+        <v>2861661.070462521</v>
       </c>
       <c r="I20" t="n">
-        <v>2378734.900256407</v>
+        <v>2708677.030848406</v>
       </c>
       <c r="J20" t="n">
-        <v>1717358.125628448</v>
+        <v>1715713.460400641</v>
       </c>
       <c r="K20" t="n">
-        <v>2171943.221613954</v>
+        <v>2216519.110321701</v>
       </c>
       <c r="L20" t="n">
-        <v>1914035.48390974</v>
+        <v>2861551.890046057</v>
       </c>
       <c r="M20" t="n">
-        <v>2378756.146534159</v>
+        <v>2708589.06900631</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1394297.027541512</v>
+        <v>4203212.69896927</v>
       </c>
       <c r="C21" t="n">
-        <v>1284602.842596509</v>
+        <v>3804067.858934119</v>
       </c>
       <c r="D21" t="n">
-        <v>1286727.393329264</v>
+        <v>4303875.829477485</v>
       </c>
       <c r="E21" t="n">
-        <v>1452373.641679052</v>
+        <v>4112803.160110632</v>
       </c>
       <c r="F21" t="n">
-        <v>1394639.075340954</v>
+        <v>4203668.832149135</v>
       </c>
       <c r="G21" t="n">
-        <v>1284876.972559442</v>
+        <v>3804432.90153511</v>
       </c>
       <c r="H21" t="n">
-        <v>1286947.091385207</v>
+        <v>4304167.97244454</v>
       </c>
       <c r="I21" t="n">
-        <v>1452549.715958817</v>
+        <v>4113036.961625765</v>
       </c>
       <c r="J21" t="n">
-        <v>1394780.187886815</v>
+        <v>4203855.943100425</v>
       </c>
       <c r="K21" t="n">
-        <v>1284990.065457654</v>
+        <v>3804582.646108291</v>
       </c>
       <c r="L21" t="n">
-        <v>1287037.728284627</v>
+        <v>4304287.812769452</v>
       </c>
       <c r="M21" t="n">
-        <v>1452622.355776757</v>
+        <v>4113132.869632112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437834.5830572477</v>
+        <v>11315029.89768045</v>
       </c>
       <c r="C22" t="n">
-        <v>437529.1526114606</v>
+        <v>10611569.13387483</v>
       </c>
       <c r="D22" t="n">
-        <v>437310.2530238086</v>
+        <v>12494910.65550174</v>
       </c>
       <c r="E22" t="n">
-        <v>437329.4677355741</v>
+        <v>11371789.47074689</v>
       </c>
       <c r="F22" t="n">
-        <v>437843.3695005884</v>
+        <v>11904073.99512054</v>
       </c>
       <c r="G22" t="n">
-        <v>437537.7529469646</v>
+        <v>11153770.5498404</v>
       </c>
       <c r="H22" t="n">
-        <v>437318.6711934724</v>
+        <v>12993994.4707079</v>
       </c>
       <c r="I22" t="n">
-        <v>437337.7075978974</v>
+        <v>11831184.5355074</v>
       </c>
       <c r="J22" t="n">
-        <v>437851.4348323433</v>
+        <v>12326936.48654221</v>
       </c>
       <c r="K22" t="n">
-        <v>437545.6474449264</v>
+        <v>11543005.65567368</v>
       </c>
       <c r="L22" t="n">
-        <v>437326.398476114</v>
+        <v>13352276.34882786</v>
       </c>
       <c r="M22" t="n">
-        <v>437345.271207048</v>
+        <v>12160974.68615262</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5514.918425848749</v>
+        <v>7660855.43222196</v>
       </c>
       <c r="C23" t="n">
-        <v>5584.756936328077</v>
+        <v>6582875.875508578</v>
       </c>
       <c r="D23" t="n">
-        <v>5461.725217082117</v>
+        <v>7591325.968299131</v>
       </c>
       <c r="E23" t="n">
-        <v>5499.907815698662</v>
+        <v>7339867.76874199</v>
       </c>
       <c r="F23" t="n">
-        <v>5472.291945009455</v>
+        <v>7661732.294792258</v>
       </c>
       <c r="G23" t="n">
-        <v>5543.03993110311</v>
+        <v>6583577.365564817</v>
       </c>
       <c r="H23" t="n">
-        <v>5420.898282963369</v>
+        <v>7591887.160344122</v>
       </c>
       <c r="I23" t="n">
-        <v>5459.951962191254</v>
+        <v>7340316.722377982</v>
       </c>
       <c r="J23" t="n">
-        <v>5433.188586798377</v>
+        <v>7662091.457701053</v>
       </c>
       <c r="K23" t="n">
-        <v>5504.770879408336</v>
+        <v>6583864.695891852</v>
       </c>
       <c r="L23" t="n">
-        <v>5383.445737079408</v>
+        <v>7592117.02460575</v>
       </c>
       <c r="M23" t="n">
-        <v>5423.298501207226</v>
+        <v>7340500.613787286</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11452471.03270955</v>
+        <v>10933157.01489898</v>
       </c>
       <c r="C24" t="n">
-        <v>11270116.80915981</v>
+        <v>8126546.804533853</v>
       </c>
       <c r="D24" t="n">
-        <v>10040031.26207525</v>
+        <v>9816931.945244046</v>
       </c>
       <c r="E24" t="n">
-        <v>11281448.47631514</v>
+        <v>10733137.74872658</v>
       </c>
       <c r="F24" t="n">
-        <v>11593392.26659397</v>
+        <v>11441447.2301674</v>
       </c>
       <c r="G24" t="n">
-        <v>11408219.01096004</v>
+        <v>8607390.688376101</v>
       </c>
       <c r="H24" t="n">
-        <v>10175370.82458373</v>
+        <v>10271811.52718996</v>
       </c>
       <c r="I24" t="n">
-        <v>11414080.66422539</v>
+        <v>11163455.03261903</v>
       </c>
       <c r="J24" t="n">
-        <v>11723371.23906742</v>
+        <v>11848528.51533836</v>
       </c>
       <c r="K24" t="n">
-        <v>11535597.84374147</v>
+        <v>8992490.657490663</v>
       </c>
       <c r="L24" t="n">
-        <v>10300201.53167425</v>
+        <v>10636117.11335749</v>
       </c>
       <c r="M24" t="n">
-        <v>11536414.21912188</v>
+        <v>11508089.07769053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2679356.814697197</v>
+        <v>5576180.551836213</v>
       </c>
       <c r="C25" t="n">
-        <v>2679007.768810568</v>
+        <v>4191048.14554744</v>
       </c>
       <c r="D25" t="n">
-        <v>2398644.832401454</v>
+        <v>4914508.376054659</v>
       </c>
       <c r="E25" t="n">
-        <v>2768946.029037637</v>
+        <v>5241109.826447259</v>
       </c>
       <c r="F25" t="n">
-        <v>2679286.511638933</v>
+        <v>5628979.271282429</v>
       </c>
       <c r="G25" t="n">
-        <v>2678951.522944721</v>
+        <v>4241907.851940341</v>
       </c>
       <c r="H25" t="n">
-        <v>2398599.832973222</v>
+        <v>4963500.278917137</v>
       </c>
       <c r="I25" t="n">
-        <v>2768910.027306475</v>
+        <v>5288302.520159337</v>
       </c>
       <c r="J25" t="n">
-        <v>2679257.708503035</v>
+        <v>5674438.831121402</v>
       </c>
       <c r="K25" t="n">
-        <v>2678928.479035144</v>
+        <v>4285697.926593876</v>
       </c>
       <c r="L25" t="n">
-        <v>2398581.396724805</v>
+        <v>5005682.179598852</v>
       </c>
       <c r="M25" t="n">
-        <v>2768895.277411082</v>
+        <v>5328935.306451663</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14151724.0217855</v>
+        <v>12279360.0339172</v>
       </c>
       <c r="C26" t="n">
-        <v>14718040.54052583</v>
+        <v>10994477.66793666</v>
       </c>
       <c r="D26" t="n">
-        <v>14036720.56215444</v>
+        <v>11484562.57388107</v>
       </c>
       <c r="E26" t="n">
-        <v>14457809.32164142</v>
+        <v>10651001.50171432</v>
       </c>
       <c r="F26" t="n">
-        <v>14476173.97075144</v>
+        <v>12279456.47656542</v>
       </c>
       <c r="G26" t="n">
-        <v>15035970.56101886</v>
+        <v>10994554.8356157</v>
       </c>
       <c r="H26" t="n">
-        <v>14348261.67428238</v>
+        <v>11484624.31887458</v>
       </c>
       <c r="I26" t="n">
-        <v>14763089.9126199</v>
+        <v>10651050.90639087</v>
       </c>
       <c r="J26" t="n">
-        <v>14775319.84781275</v>
+        <v>12279496.00725328</v>
       </c>
       <c r="K26" t="n">
-        <v>15329105.00325757</v>
+        <v>10994586.46572426</v>
       </c>
       <c r="L26" t="n">
-        <v>14635505.48345909</v>
+        <v>11484649.62740882</v>
       </c>
       <c r="M26" t="n">
-        <v>15044561.46294411</v>
+        <v>10651071.1567768</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12381905.1407307</v>
+        <v>4943157.855573899</v>
       </c>
       <c r="C27" t="n">
-        <v>13477806.6414409</v>
+        <v>3860640.779714483</v>
       </c>
       <c r="D27" t="n">
-        <v>12606439.94785006</v>
+        <v>4315435.735239149</v>
       </c>
       <c r="E27" t="n">
-        <v>12925170.21844013</v>
+        <v>4871367.706877192</v>
       </c>
       <c r="F27" t="n">
-        <v>12382420.41125579</v>
+        <v>4942989.468099609</v>
       </c>
       <c r="G27" t="n">
-        <v>13478218.85846565</v>
+        <v>3860505.74539308</v>
       </c>
       <c r="H27" t="n">
-        <v>12606769.72195362</v>
+        <v>4315327.447683713</v>
       </c>
       <c r="I27" t="n">
-        <v>12925434.03810998</v>
+        <v>4871280.8682532</v>
       </c>
       <c r="J27" t="n">
-        <v>12382631.46730127</v>
+        <v>4942919.829934943</v>
       </c>
       <c r="K27" t="n">
-        <v>13478387.70354972</v>
+        <v>3860449.900726787</v>
       </c>
       <c r="L27" t="n">
-        <v>12606904.79821902</v>
+        <v>4315282.664384666</v>
       </c>
       <c r="M27" t="n">
-        <v>12925542.09928082</v>
+        <v>4871244.955353962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14755182.97530306</v>
+        <v>10754700.47997935</v>
       </c>
       <c r="C28" t="n">
-        <v>15511569.26435551</v>
+        <v>7884883.011199577</v>
       </c>
       <c r="D28" t="n">
-        <v>16116011.45008052</v>
+        <v>9387772.398854295</v>
       </c>
       <c r="E28" t="n">
-        <v>16600462.04600813</v>
+        <v>9595758.6341289</v>
       </c>
       <c r="F28" t="n">
-        <v>16988075.81210956</v>
+        <v>10425346.46361606</v>
       </c>
       <c r="G28" t="n">
-        <v>17297883.53380072</v>
+        <v>7621399.798035646</v>
       </c>
       <c r="H28" t="n">
-        <v>17545062.86563669</v>
+        <v>9176985.828264507</v>
       </c>
       <c r="I28" t="n">
-        <v>17743703.17845307</v>
+        <v>9427129.377610154</v>
       </c>
       <c r="J28" t="n">
-        <v>17902668.71806551</v>
+        <v>10290443.05836354</v>
       </c>
       <c r="K28" t="n">
-        <v>18029557.85856548</v>
+        <v>7513477.073803598</v>
       </c>
       <c r="L28" t="n">
-        <v>18130402.32544849</v>
+        <v>9090647.648854848</v>
       </c>
       <c r="M28" t="n">
-        <v>18211974.74630251</v>
+        <v>9358058.834063211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17408907.40559185</v>
+        <v>2495075.89137318</v>
       </c>
       <c r="C29" t="n">
-        <v>18274764.26299943</v>
+        <v>2593391.149109908</v>
       </c>
       <c r="D29" t="n">
-        <v>19124102.49186853</v>
+        <v>2689757.207812049</v>
       </c>
       <c r="E29" t="n">
-        <v>19956945.78350407</v>
+        <v>2784292.241483673</v>
       </c>
       <c r="F29" t="n">
-        <v>20771248.74539779</v>
+        <v>2876804.103138208</v>
       </c>
       <c r="G29" t="n">
-        <v>21569798.43182593</v>
+        <v>2967483.670129116</v>
       </c>
       <c r="H29" t="n">
-        <v>22353176.84110185</v>
+        <v>3056366.774433887</v>
       </c>
       <c r="I29" t="n">
-        <v>23121380.69332172</v>
+        <v>3143568.534878887</v>
       </c>
       <c r="J29" t="n">
-        <v>23872338.16467678</v>
+        <v>3228893.810412407</v>
       </c>
       <c r="K29" t="n">
-        <v>24608810.40724314</v>
+        <v>3312530.544212911</v>
       </c>
       <c r="L29" t="n">
-        <v>25331354.03564289</v>
+        <v>3394511.692775051</v>
       </c>
       <c r="M29" t="n">
-        <v>26039940.89441033</v>
+        <v>3474949.556960497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42882535.23296959</v>
+        <v>801682.40808579</v>
       </c>
       <c r="C30" t="n">
-        <v>38824973.72876187</v>
+        <v>580362.4760185988</v>
       </c>
       <c r="D30" t="n">
-        <v>38378858.5425249</v>
+        <v>552801.7457315332</v>
       </c>
       <c r="E30" t="n">
-        <v>42295416.76795336</v>
+        <v>605071.9502013945</v>
       </c>
       <c r="F30" t="n">
-        <v>42885753.975094</v>
+        <v>752283.7509650406</v>
       </c>
       <c r="G30" t="n">
-        <v>38827548.72246254</v>
+        <v>537664.613299703</v>
       </c>
       <c r="H30" t="n">
-        <v>38380918.53748635</v>
+        <v>515895.7327541907</v>
       </c>
       <c r="I30" t="n">
-        <v>42297064.76392324</v>
+        <v>573172.1381932164</v>
       </c>
       <c r="J30" t="n">
-        <v>42887072.37187049</v>
+        <v>724711.0622874034</v>
       </c>
       <c r="K30" t="n">
-        <v>38828603.4398842</v>
+        <v>513832.0853613252</v>
       </c>
       <c r="L30" t="n">
-        <v>38381762.31142405</v>
+        <v>495296.0228537838</v>
       </c>
       <c r="M30" t="n">
-        <v>42297739.7830737</v>
+        <v>555366.7232964783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37404921.94458417</v>
+        <v>607078.9898725549</v>
       </c>
       <c r="C31" t="n">
-        <v>38671163.99091642</v>
+        <v>596700.878204888</v>
       </c>
       <c r="D31" t="n">
-        <v>35700499.71398009</v>
+        <v>641646.3248848213</v>
       </c>
       <c r="E31" t="n">
-        <v>39021438.55080835</v>
+        <v>667288.4564263171</v>
       </c>
       <c r="F31" t="n">
-        <v>37407014.30778676</v>
+        <v>607057.3757391552</v>
       </c>
       <c r="G31" t="n">
-        <v>38672837.881526</v>
+        <v>596683.5865194423</v>
       </c>
       <c r="H31" t="n">
-        <v>35701838.82650577</v>
+        <v>641632.4912334773</v>
       </c>
       <c r="I31" t="n">
-        <v>39022509.84085929</v>
+        <v>667277.3892628467</v>
       </c>
       <c r="J31" t="n">
-        <v>37407871.33985184</v>
+        <v>607048.5218144584</v>
       </c>
       <c r="K31" t="n">
-        <v>38673523.50719753</v>
+        <v>596676.503224545</v>
       </c>
       <c r="L31" t="n">
-        <v>35702387.32705855</v>
+        <v>641626.824473445</v>
       </c>
       <c r="M31" t="n">
-        <v>39022948.64131398</v>
+        <v>667272.855755527</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>878932.7202481616</v>
+        <v>1861706.547364155</v>
       </c>
       <c r="C32" t="n">
-        <v>854107.3831914063</v>
+        <v>1889546.527337482</v>
       </c>
       <c r="D32" t="n">
-        <v>813055.8656784124</v>
+        <v>1916688.714942383</v>
       </c>
       <c r="E32" t="n">
-        <v>1439448.646757215</v>
+        <v>1942945.431482866</v>
       </c>
       <c r="F32" t="n">
-        <v>1409027.092930797</v>
+        <v>1968376.24775706</v>
       </c>
       <c r="G32" t="n">
-        <v>1373596.00613007</v>
+        <v>1992851.738971401</v>
       </c>
       <c r="H32" t="n">
-        <v>1322150.931141931</v>
+        <v>2016735.557779851</v>
       </c>
       <c r="I32" t="n">
-        <v>1938358.101622997</v>
+        <v>2039836.678337043</v>
       </c>
       <c r="J32" t="n">
-        <v>1897954.723623592</v>
+        <v>2062211.429864788</v>
       </c>
       <c r="K32" t="n">
-        <v>1852741.521861336</v>
+        <v>2083727.248236364</v>
       </c>
       <c r="L32" t="n">
-        <v>1791710.045483808</v>
+        <v>2104744.74579086</v>
       </c>
       <c r="M32" t="n">
-        <v>2398522.612450203</v>
+        <v>2125069.952263173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4598927.195623264</v>
+        <v>2253105.058184293</v>
       </c>
       <c r="C33" t="n">
-        <v>4728972.120495359</v>
+        <v>2253140.441692035</v>
       </c>
       <c r="D33" t="n">
-        <v>4178052.186821265</v>
+        <v>2253520.567013364</v>
       </c>
       <c r="E33" t="n">
-        <v>4334834.235294169</v>
+        <v>2253723.470100993</v>
       </c>
       <c r="F33" t="n">
-        <v>4929416.10954275</v>
+        <v>2253858.528017684</v>
       </c>
       <c r="G33" t="n">
-        <v>5052850.927237874</v>
+        <v>2253877.767348923</v>
       </c>
       <c r="H33" t="n">
-        <v>4495453.095108646</v>
+        <v>2254242.094405984</v>
       </c>
       <c r="I33" t="n">
-        <v>4645886.809542246</v>
+        <v>2254429.537729914</v>
       </c>
       <c r="J33" t="n">
-        <v>5234247.322750094</v>
+        <v>2254549.467130613</v>
       </c>
       <c r="K33" t="n">
-        <v>5351585.212816724</v>
+        <v>2254553.902096104</v>
       </c>
       <c r="L33" t="n">
-        <v>4788212.39767916</v>
+        <v>2254903.74199228</v>
       </c>
       <c r="M33" t="n">
-        <v>4932790.634710822</v>
+        <v>2255077.008563615</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9709385.476482226</v>
+        <v>2421618.572100378</v>
       </c>
       <c r="C34" t="n">
-        <v>10005980.8858253</v>
+        <v>2418143.248160611</v>
       </c>
       <c r="D34" t="n">
-        <v>10173942.18021617</v>
+        <v>2504692.58577097</v>
       </c>
       <c r="E34" t="n">
-        <v>10347602.48179366</v>
+        <v>2312091.697409029</v>
       </c>
       <c r="F34" t="n">
-        <v>9958607.948526079</v>
+        <v>2423521.425192068</v>
       </c>
       <c r="G34" t="n">
-        <v>10250218.68109556</v>
+        <v>2419821.542111937</v>
       </c>
       <c r="H34" t="n">
-        <v>10413294.99679517</v>
+        <v>2506172.821212874</v>
       </c>
       <c r="I34" t="n">
-        <v>10582168.02371116</v>
+        <v>2313397.247584992</v>
       </c>
       <c r="J34" t="n">
-        <v>10188481.96564209</v>
+        <v>2424672.905026764</v>
       </c>
       <c r="K34" t="n">
-        <v>10475495.00818558</v>
+        <v>2420837.133725437</v>
       </c>
       <c r="L34" t="n">
-        <v>10634065.59185357</v>
+        <v>2507068.561020323</v>
       </c>
       <c r="M34" t="n">
-        <v>10798523.00548856</v>
+        <v>2314187.279515133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4617047.541090203</v>
+        <v>1607436.666515039</v>
       </c>
       <c r="C35" t="n">
-        <v>4683872.145457027</v>
+        <v>1614219.326071271</v>
       </c>
       <c r="D35" t="n">
-        <v>4749406.910141304</v>
+        <v>1620917.752521952</v>
       </c>
       <c r="E35" t="n">
-        <v>4814248.491030306</v>
+        <v>1627570.367207233</v>
       </c>
       <c r="F35" t="n">
-        <v>4877014.766070171</v>
+        <v>1633603.556515647</v>
       </c>
       <c r="G35" t="n">
-        <v>4938635.671626274</v>
+        <v>1639829.311025592</v>
       </c>
       <c r="H35" t="n">
-        <v>4999070.898635199</v>
+        <v>1645982.684936361</v>
       </c>
       <c r="I35" t="n">
-        <v>5058915.018016868</v>
+        <v>1652101.847333421</v>
       </c>
       <c r="J35" t="n">
-        <v>5116783.864484339</v>
+        <v>1657612.937719308</v>
       </c>
       <c r="K35" t="n">
-        <v>5173605.372068788</v>
+        <v>1663327.705040853</v>
       </c>
       <c r="L35" t="n">
-        <v>5229337.269452825</v>
+        <v>1668980.967008382</v>
       </c>
       <c r="M35" t="n">
-        <v>5284572.204580344</v>
+        <v>1674610.661251544</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2991783.508254041</v>
+        <v>1393449.412898765</v>
       </c>
       <c r="C36" t="n">
-        <v>2999872.889458027</v>
+        <v>1407740.233028289</v>
       </c>
       <c r="D36" t="n">
-        <v>3007388.5610758</v>
+        <v>1627535.541810503</v>
       </c>
       <c r="E36" t="n">
-        <v>3171673.399206928</v>
+        <v>1446900.370502223</v>
       </c>
       <c r="F36" t="n">
-        <v>3019684.180816469</v>
+        <v>1419704.311490576</v>
       </c>
       <c r="G36" t="n">
-        <v>3025859.663030497</v>
+        <v>1432197.378809976</v>
       </c>
       <c r="H36" t="n">
-        <v>3031592.723150954</v>
+        <v>1650318.032388214</v>
       </c>
       <c r="I36" t="n">
-        <v>3194217.231365491</v>
+        <v>1468122.874614382</v>
       </c>
       <c r="J36" t="n">
-        <v>3040681.576504674</v>
+        <v>1439473.646158104</v>
       </c>
       <c r="K36" t="n">
-        <v>3045416.702959911</v>
+        <v>1450613.046967289</v>
       </c>
       <c r="L36" t="n">
-        <v>3049808.211227676</v>
+        <v>1667472.723700984</v>
       </c>
       <c r="M36" t="n">
-        <v>3211183.193856276</v>
+        <v>1484102.932004781</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6137298.647366749</v>
+        <v>3860146.064208453</v>
       </c>
       <c r="C37" t="n">
-        <v>5097838.743893051</v>
+        <v>3332420.707920376</v>
       </c>
       <c r="D37" t="n">
-        <v>3815867.989416719</v>
+        <v>3656402.713956931</v>
       </c>
       <c r="E37" t="n">
-        <v>4846795.926140068</v>
+        <v>4149059.9613381</v>
       </c>
       <c r="F37" t="n">
-        <v>6137251.805465855</v>
+        <v>3860073.167204834</v>
       </c>
       <c r="G37" t="n">
-        <v>5097801.27037223</v>
+        <v>3332362.389848039</v>
       </c>
       <c r="H37" t="n">
-        <v>3815838.010599978</v>
+        <v>3656356.059123506</v>
       </c>
       <c r="I37" t="n">
-        <v>4846771.943086607</v>
+        <v>4149022.637170912</v>
       </c>
       <c r="J37" t="n">
-        <v>6137232.619023032</v>
+        <v>3860043.307630724</v>
       </c>
       <c r="K37" t="n">
-        <v>5097785.921217929</v>
+        <v>3332338.501996462</v>
       </c>
       <c r="L37" t="n">
-        <v>3815825.731276503</v>
+        <v>3656336.948688411</v>
       </c>
       <c r="M37" t="n">
-        <v>4846762.1196278</v>
+        <v>4149007.348699769</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3168980.50807555</v>
+        <v>3770222.06407308</v>
       </c>
       <c r="C38" t="n">
-        <v>1749178.99496874</v>
+        <v>3721716.235338463</v>
       </c>
       <c r="D38" t="n">
-        <v>2566937.884782539</v>
+        <v>3917310.136927193</v>
       </c>
       <c r="E38" t="n">
-        <v>3214363.034979026</v>
+        <v>3726320.034385823</v>
       </c>
       <c r="F38" t="n">
-        <v>3168715.159047915</v>
+        <v>3911837.699010843</v>
       </c>
       <c r="G38" t="n">
-        <v>1748966.715746456</v>
+        <v>3860499.401576395</v>
       </c>
       <c r="H38" t="n">
-        <v>2566768.061404571</v>
+        <v>4053317.486959481</v>
       </c>
       <c r="I38" t="n">
-        <v>3214227.176276539</v>
+        <v>3859607.087594368</v>
       </c>
       <c r="J38" t="n">
-        <v>3168606.472085836</v>
+        <v>4042458.864328747</v>
       </c>
       <c r="K38" t="n">
-        <v>1748879.76617672</v>
+        <v>3988507.99969816</v>
       </c>
       <c r="L38" t="n">
-        <v>2566698.501748725</v>
+        <v>4178765.772106986</v>
       </c>
       <c r="M38" t="n">
-        <v>3214171.528551816</v>
+        <v>3982546.268847489</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2513422.173840356</v>
+        <v>5235987.556840029</v>
       </c>
       <c r="C39" t="n">
-        <v>2940188.483172301</v>
+        <v>5271943.47011926</v>
       </c>
       <c r="D39" t="n">
-        <v>2384382.728946901</v>
+        <v>5307525.102795546</v>
       </c>
       <c r="E39" t="n">
-        <v>3287589.951978366</v>
+        <v>5341713.09850615</v>
       </c>
       <c r="F39" t="n">
-        <v>2522950.851601542</v>
+        <v>5375635.92393772</v>
       </c>
       <c r="G39" t="n">
-        <v>2949526.474221734</v>
+        <v>5408798.128947653</v>
       </c>
       <c r="H39" t="n">
-        <v>2393533.849283292</v>
+        <v>5441641.942342503</v>
       </c>
       <c r="I39" t="n">
-        <v>3296557.941235134</v>
+        <v>5473146.88968325</v>
       </c>
       <c r="J39" t="n">
-        <v>2531739.374575026</v>
+        <v>5504440.341947715</v>
       </c>
       <c r="K39" t="n">
-        <v>2958139.12236883</v>
+        <v>5535025.775204455</v>
       </c>
       <c r="L39" t="n">
-        <v>2401974.142189104</v>
+        <v>5565344.365952662</v>
       </c>
       <c r="M39" t="n">
-        <v>3304829.328051269</v>
+        <v>5594374.608497683</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11517850.9992399</v>
+        <v>5191178.515311342</v>
       </c>
       <c r="C40" t="n">
-        <v>11663215.76977883</v>
+        <v>4927376.185361176</v>
       </c>
       <c r="D40" t="n">
-        <v>10754017.95254978</v>
+        <v>5091371.063424158</v>
       </c>
       <c r="E40" t="n">
-        <v>12590449.83934461</v>
+        <v>5275362.088305824</v>
       </c>
       <c r="F40" t="n">
-        <v>11519188.89644927</v>
+        <v>5351531.884553773</v>
       </c>
       <c r="G40" t="n">
-        <v>11664286.08754634</v>
+        <v>5077641.971448262</v>
       </c>
       <c r="H40" t="n">
-        <v>10754874.2067638</v>
+        <v>5232183.860654708</v>
       </c>
       <c r="I40" t="n">
-        <v>12591134.84271583</v>
+        <v>5407316.569630005</v>
       </c>
       <c r="J40" t="n">
-        <v>11519736.89914625</v>
+        <v>5475185.31296359</v>
       </c>
       <c r="K40" t="n">
-        <v>11664724.48970393</v>
+        <v>5193516.553380325</v>
       </c>
       <c r="L40" t="n">
-        <v>10755224.92848988</v>
+        <v>5340768.951344067</v>
       </c>
       <c r="M40" t="n">
-        <v>12591415.4200967</v>
+        <v>5509070.739728581</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6899286.926704288</v>
+        <v>3232949.481322631</v>
       </c>
       <c r="C41" t="n">
-        <v>7473567.328756055</v>
+        <v>2846477.078774625</v>
       </c>
       <c r="D41" t="n">
-        <v>6343221.451771464</v>
+        <v>2853919.627753454</v>
       </c>
       <c r="E41" t="n">
-        <v>7361486.135253801</v>
+        <v>2854868.540959694</v>
       </c>
       <c r="F41" t="n">
-        <v>6899917.951004044</v>
+        <v>3270613.885109012</v>
       </c>
       <c r="G41" t="n">
-        <v>7474072.149885828</v>
+        <v>2876609.514453619</v>
       </c>
       <c r="H41" t="n">
-        <v>6343625.310027261</v>
+        <v>2878026.306438676</v>
       </c>
       <c r="I41" t="n">
-        <v>7361809.222940026</v>
+        <v>2874154.468039184</v>
       </c>
       <c r="J41" t="n">
-        <v>6900176.422018296</v>
+        <v>3286043.094091809</v>
       </c>
       <c r="K41" t="n">
-        <v>7474278.92738945</v>
+        <v>2888953.255506544</v>
       </c>
       <c r="L41" t="n">
-        <v>6343790.732583936</v>
+        <v>2887901.598383425</v>
       </c>
       <c r="M41" t="n">
-        <v>7361941.56142839</v>
+        <v>2882054.940884158</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10441743.70778947</v>
+        <v>4084709.60216783</v>
       </c>
       <c r="C42" t="n">
-        <v>10401389.83228959</v>
+        <v>3926865.188455624</v>
       </c>
       <c r="D42" t="n">
-        <v>8638605.658415033</v>
+        <v>3737168.792120986</v>
       </c>
       <c r="E42" t="n">
-        <v>10206325.54886599</v>
+        <v>3818997.461628225</v>
       </c>
       <c r="F42" t="n">
-        <v>10881196.47960455</v>
+        <v>4084778.854380256</v>
       </c>
       <c r="G42" t="n">
-        <v>10766623.07999202</v>
+        <v>3926920.59022601</v>
       </c>
       <c r="H42" t="n">
-        <v>8942154.375780713</v>
+        <v>3737213.113537652</v>
       </c>
       <c r="I42" t="n">
-        <v>10458607.68471749</v>
+        <v>3819032.918761843</v>
       </c>
       <c r="J42" t="n">
-        <v>11090870.48719762</v>
+        <v>4084807.22008738</v>
       </c>
       <c r="K42" t="n">
-        <v>10940885.07960508</v>
+        <v>3926943.282791891</v>
       </c>
       <c r="L42" t="n">
-        <v>9086985.129281064</v>
+        <v>3737231.267590504</v>
       </c>
       <c r="M42" t="n">
-        <v>10578977.85839882</v>
+        <v>3819047.442004241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5370776.010995636</v>
+        <v>3378519.211008129</v>
       </c>
       <c r="C43" t="n">
-        <v>5589120.240450421</v>
+        <v>2749858.663822715</v>
       </c>
       <c r="D43" t="n">
-        <v>4207054.964754357</v>
+        <v>2823084.832882498</v>
       </c>
       <c r="E43" t="n">
-        <v>4923586.54618698</v>
+        <v>3277117.529023035</v>
       </c>
       <c r="F43" t="n">
-        <v>5370931.230044656</v>
+        <v>3378557.913421295</v>
       </c>
       <c r="G43" t="n">
-        <v>5589244.4159055</v>
+        <v>2749889.625919931</v>
       </c>
       <c r="H43" t="n">
-        <v>4207154.305291112</v>
+        <v>2823109.602693618</v>
       </c>
       <c r="I43" t="n">
-        <v>4923666.018754536</v>
+        <v>3277137.344978609</v>
       </c>
       <c r="J43" t="n">
-        <v>5370994.808209224</v>
+        <v>3378573.766271097</v>
       </c>
       <c r="K43" t="n">
-        <v>5589295.278525572</v>
+        <v>2749902.308268047</v>
       </c>
       <c r="L43" t="n">
-        <v>4207194.995457903</v>
+        <v>2823119.748626732</v>
       </c>
       <c r="M43" t="n">
-        <v>4923698.570944558</v>
+        <v>3277145.461768797</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12381592.49486545</v>
+        <v>5483881.257867796</v>
       </c>
       <c r="C44" t="n">
-        <v>14217641.78395035</v>
+        <v>5209918.855036183</v>
       </c>
       <c r="D44" t="n">
-        <v>12152352.9936823</v>
+        <v>5232183.478837542</v>
       </c>
       <c r="E44" t="n">
-        <v>13117838.45607853</v>
+        <v>5582246.813266021</v>
       </c>
       <c r="F44" t="n">
-        <v>12381942.27226745</v>
+        <v>5484030.357241181</v>
       </c>
       <c r="G44" t="n">
-        <v>14217921.62045428</v>
+        <v>5210038.13453491</v>
       </c>
       <c r="H44" t="n">
-        <v>12152576.87455192</v>
+        <v>5232278.90243654</v>
       </c>
       <c r="I44" t="n">
-        <v>13118017.57010789</v>
+        <v>5582323.152145231</v>
       </c>
       <c r="J44" t="n">
-        <v>12382085.57095825</v>
+        <v>5484091.428344559</v>
       </c>
       <c r="K44" t="n">
-        <v>14218036.2653811</v>
+        <v>5210086.991417621</v>
       </c>
       <c r="L44" t="n">
-        <v>12152668.59527296</v>
+        <v>5232317.987942714</v>
       </c>
       <c r="M44" t="n">
-        <v>13118090.95050858</v>
+        <v>5582354.420550176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5429245.795838028</v>
+        <v>3311639.682632255</v>
       </c>
       <c r="C45" t="n">
-        <v>5575532.938216495</v>
+        <v>3096590.342734408</v>
       </c>
       <c r="D45" t="n">
-        <v>4613294.097669545</v>
+        <v>2832153.546153722</v>
       </c>
       <c r="E45" t="n">
-        <v>5011915.847294598</v>
+        <v>3222043.612633338</v>
       </c>
       <c r="F45" t="n">
-        <v>5429362.864210499</v>
+        <v>3349469.164193991</v>
       </c>
       <c r="G45" t="n">
-        <v>5575626.61750701</v>
+        <v>3133663.139572299</v>
       </c>
       <c r="H45" t="n">
-        <v>4613369.060781152</v>
+        <v>2868484.793864337</v>
       </c>
       <c r="I45" t="n">
-        <v>5011975.833531374</v>
+        <v>3257648.144063267</v>
       </c>
       <c r="J45" t="n">
-        <v>5429410.865801222</v>
+        <v>3384361.515495607</v>
       </c>
       <c r="K45" t="n">
-        <v>5575665.028863275</v>
+        <v>3167857.556138387</v>
       </c>
       <c r="L45" t="n">
-        <v>4613399.797935233</v>
+        <v>2901995.236144019</v>
       </c>
       <c r="M45" t="n">
-        <v>5012000.429711589</v>
+        <v>3290488.293261589</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10599432.10726926</v>
+        <v>2008943.010575939</v>
       </c>
       <c r="C46" t="n">
-        <v>10624144.84474318</v>
+        <v>1992506.125221027</v>
       </c>
       <c r="D46" t="n">
-        <v>7839013.798958614</v>
+        <v>2118162.727156514</v>
       </c>
       <c r="E46" t="n">
-        <v>9306336.508732526</v>
+        <v>2240790.29321766</v>
       </c>
       <c r="F46" t="n">
-        <v>10246525.53588156</v>
+        <v>2009990.612393925</v>
       </c>
       <c r="G46" t="n">
-        <v>10341803.60141058</v>
+        <v>1993344.206688216</v>
       </c>
       <c r="H46" t="n">
-        <v>7613128.014590425</v>
+        <v>2118833.192340507</v>
       </c>
       <c r="I46" t="n">
-        <v>9125617.648896931</v>
+        <v>2241326.665373047</v>
       </c>
       <c r="J46" t="n">
-        <v>10101942.26167674</v>
+        <v>2010419.710124789</v>
       </c>
       <c r="K46" t="n">
-        <v>10226130.43260681</v>
+        <v>1993687.484878151</v>
       </c>
       <c r="L46" t="n">
-        <v>7520584.239698803</v>
+        <v>2119107.81489665</v>
       </c>
       <c r="M46" t="n">
-        <v>9051578.436867388</v>
+        <v>2241546.363421317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2281919.801192264</v>
+        <v>1663029.624192362</v>
       </c>
       <c r="C47" t="n">
-        <v>2364141.616956234</v>
+        <v>1659148.978305173</v>
       </c>
       <c r="D47" t="n">
-        <v>2444724.257808811</v>
+        <v>1655961.866372262</v>
       </c>
       <c r="E47" t="n">
-        <v>2523712.065846696</v>
+        <v>1653564.625555569</v>
       </c>
       <c r="F47" t="n">
-        <v>2601201.921421136</v>
+        <v>1651620.251634963</v>
       </c>
       <c r="G47" t="n">
-        <v>2677037.581953125</v>
+        <v>1650021.261852543</v>
       </c>
       <c r="H47" t="n">
-        <v>2751361.80093573</v>
+        <v>1648659.51848061</v>
       </c>
       <c r="I47" t="n">
-        <v>2824216.365593252</v>
+        <v>1647722.607455263</v>
       </c>
       <c r="J47" t="n">
-        <v>2895695.652506083</v>
+        <v>1646946.525322456</v>
       </c>
       <c r="K47" t="n">
-        <v>2965640.965403805</v>
+        <v>1646282.191334587</v>
       </c>
       <c r="L47" t="n">
-        <v>3034192.653165839</v>
+        <v>1645668.190490171</v>
       </c>
       <c r="M47" t="n">
-        <v>3101390.146498976</v>
+        <v>1645329.487800684</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>658062.6049952155</v>
+        <v>5584486.204132165</v>
       </c>
       <c r="C48" t="n">
-        <v>798680.9448364233</v>
+        <v>5448718.156340394</v>
       </c>
       <c r="D48" t="n">
-        <v>576775.3859193599</v>
+        <v>5533900.67821137</v>
       </c>
       <c r="E48" t="n">
-        <v>549249.6134212135</v>
+        <v>5751706.923253754</v>
       </c>
       <c r="F48" t="n">
-        <v>600169.0775513845</v>
+        <v>6075863.546044172</v>
       </c>
       <c r="G48" t="n">
-        <v>748727.050520411</v>
+        <v>5930267.599905482</v>
       </c>
       <c r="H48" t="n">
-        <v>533672.2677036598</v>
+        <v>6005818.7884269</v>
       </c>
       <c r="I48" t="n">
-        <v>512057.7422897353</v>
+        <v>6214186.333676532</v>
       </c>
       <c r="J48" t="n">
-        <v>568077.7733599247</v>
+        <v>6529093.037422061</v>
       </c>
       <c r="K48" t="n">
-        <v>721036.8114069193</v>
+        <v>6374432.177236347</v>
       </c>
       <c r="L48" t="n">
-        <v>509779.5228782127</v>
+        <v>6441099.756476303</v>
       </c>
       <c r="M48" t="n">
-        <v>491441.6958571212</v>
+        <v>6640761.370985025</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>729096.7235692929</v>
+        <v>608515.3559462146</v>
       </c>
       <c r="C49" t="n">
-        <v>617524.1393633561</v>
+        <v>570133.02964027</v>
       </c>
       <c r="D49" t="n">
-        <v>645655.658876974</v>
+        <v>582523.6684703944</v>
       </c>
       <c r="E49" t="n">
-        <v>657163.7973694718</v>
+        <v>620928.5763576655</v>
       </c>
       <c r="F49" t="n">
-        <v>739509.048414562</v>
+        <v>608777.564978328</v>
       </c>
       <c r="G49" t="n">
-        <v>627728.0584246127</v>
+        <v>570389.7806609081</v>
       </c>
       <c r="H49" t="n">
-        <v>655655.3434580775</v>
+        <v>582775.0750907819</v>
       </c>
       <c r="I49" t="n">
-        <v>666963.3352843917</v>
+        <v>621174.7498241529</v>
       </c>
       <c r="J49" t="n">
-        <v>749112.4456584535</v>
+        <v>609018.6142216177</v>
       </c>
       <c r="K49" t="n">
-        <v>637139.2408114444</v>
+        <v>570625.8123442559</v>
       </c>
       <c r="L49" t="n">
-        <v>664878.1582254814</v>
+        <v>583006.1936571945</v>
       </c>
       <c r="M49" t="n">
-        <v>676001.5526663926</v>
+        <v>621401.057542604</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1679246.664751121</v>
+        <v>2826587.344865839</v>
       </c>
       <c r="C50" t="n">
-        <v>1687541.961550994</v>
+        <v>2910834.227218381</v>
       </c>
       <c r="D50" t="n">
-        <v>1695163.5824039</v>
+        <v>2993767.699601367</v>
       </c>
       <c r="E50" t="n">
-        <v>1702513.313483292</v>
+        <v>3074814.556517999</v>
       </c>
       <c r="F50" t="n">
-        <v>1709366.885437014</v>
+        <v>3154453.844657047</v>
       </c>
       <c r="G50" t="n">
-        <v>1715888.792062211</v>
+        <v>3232143.394206506</v>
       </c>
       <c r="H50" t="n">
-        <v>1721841.434748057</v>
+        <v>3308650.680498616</v>
       </c>
       <c r="I50" t="n">
-        <v>1727620.452195503</v>
+        <v>3383399.875101213</v>
       </c>
       <c r="J50" t="n">
-        <v>1732995.789525024</v>
+        <v>3456867.454226427</v>
       </c>
       <c r="K50" t="n">
-        <v>1738126.495641266</v>
+        <v>3528508.728995173</v>
       </c>
       <c r="L50" t="n">
-        <v>1742769.847620191</v>
+        <v>3599088.706053971</v>
       </c>
       <c r="M50" t="n">
-        <v>1747316.661554055</v>
+        <v>3668029.137658672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2182742.442924317</v>
+        <v>2925911.504190956</v>
       </c>
       <c r="C51" t="n">
-        <v>2182886.886508016</v>
+        <v>2999491.259146457</v>
       </c>
       <c r="D51" t="n">
-        <v>2182887.726441607</v>
+        <v>3074442.976533598</v>
       </c>
       <c r="E51" t="n">
-        <v>2183283.922471721</v>
+        <v>3146558.03510623</v>
       </c>
       <c r="F51" t="n">
-        <v>2183467.2838822</v>
+        <v>3219125.969540096</v>
       </c>
       <c r="G51" t="n">
-        <v>2183595.800560138</v>
+        <v>3286840.093480767</v>
       </c>
       <c r="H51" t="n">
-        <v>2183581.063549328</v>
+        <v>3356043.51931367</v>
       </c>
       <c r="I51" t="n">
-        <v>2183962.02490671</v>
+        <v>3422525.278466517</v>
       </c>
       <c r="J51" t="n">
-        <v>2184130.486395406</v>
+        <v>3489572.605246173</v>
       </c>
       <c r="K51" t="n">
-        <v>2184244.430547035</v>
+        <v>3551876.558947237</v>
       </c>
       <c r="L51" t="n">
-        <v>2184215.441211542</v>
+        <v>3615778.042701498</v>
       </c>
       <c r="M51" t="n">
-        <v>2184582.463410088</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2173759.102568357</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2422595.38860394</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2204527.58688918</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2492684.342230151</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2175337.685610644</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2423976.594332433</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2205736.09427417</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2493741.744519647</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2176262.876152066</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2424786.104153284</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2206444.387453483</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2494361.476627818</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1194999.042984912</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1194823.353716911</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1194959.614480425</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1195131.668812148</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1195327.643874925</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1195144.938028935</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1195274.332038663</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1195439.666241625</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1195629.064669797</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1195439.922619345</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1195563.017856163</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1195722.187783208</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1434134.710199985</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1407559.096403023</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1421312.949188314</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1644859.751072118</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1471845.675354562</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1443060.226668332</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1454733.739267496</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1676322.10737372</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1501464.360661034</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1470943.278747275</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1480982.864952597</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1701033.053552836</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4061379.159409295</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3928037.26857428</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3410461.337173847</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3559695.986398741</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4061260.700316009</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3927942.498311362</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3410385.518572806</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3559635.329605283</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4061212.173351094</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3927903.675515273</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3410354.459356578</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3559610.48144879</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3454405.123117894</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3715779.745639612</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3659937.626366674</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3875806.376646923</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3566396.747380552</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3825415.76489786</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3767267.587852041</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3980878.785426339</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3669259.088276983</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3926114.523949878</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3865848.273322016</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4077385.948366749</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5432311.528645561</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5480577.557570009</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5527823.233717876</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5574468.532725608</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5619526.340509182</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5664046.535927934</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5707621.325998208</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5750669.18679248</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5792201.534666342</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5833266.808322023</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5873455.803433729</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5913185.612970227</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5147016.237903075</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5188833.63674791</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4929560.593824675</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5170149.798606906</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5355215.033218842</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5378073.383353592</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5101567.745168028</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5326493.593417118</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5497321.811830999</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5507239.600356569</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5218971.797091507</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5433206.569362936</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2916198.130823045</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3397782.15557345</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2868368.535596947</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2711047.379691492</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2917457.273449383</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3398789.475263747</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2869174.39582059</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2711692.071447551</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2917973.029715961</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3399202.082566407</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2869504.483494246</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2711956.143051707</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4383344.939459115</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4532293.131539859</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4359288.450287367</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4078331.99718345</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4383568.523398074</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4532471.999613951</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4359431.545484985</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4078446.473932222</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4383660.105269638</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4532545.265489239</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4359490.158487648</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4078493.364576299</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3288424.96660378</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3383148.820085214</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2799301.164612925</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2851381.926294713</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3288651.802312654</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3383330.363403119</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2799446.459092527</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2851498.209758331</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3288744.867403276</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3383404.846144027</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2799506.069830087</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2851545.917992336</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5513726.50963937</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5342903.564949793</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5259114.389671342</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5418603.134435379</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5513895.756321936</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5343038.962295845</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5259222.707548183</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5418689.788736853</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5513965.079763114</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5343094.421048788</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5259267.074550538</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5418725.282338737</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3327605.13054685</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3393062.242442038</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3166332.796410483</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2898493.4336926</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3349782.558740941</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3414796.012270023</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3187631.783236272</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2919366.335328882</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3370237.899001089</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3434842.144448939</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3207276.893521603</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2938618.446143991</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2274948.780278947</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2006887.280115118</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1992887.29619564</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2115681.995398124</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2277610.340916312</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2009016.529513342</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1994590.696424885</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2117044.716150053</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2278700.517972682</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2009888.671522299</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1995288.41032314</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2117602.887501528</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1667613.238807297</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1662867.358267819</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1659022.387344684</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1655859.89754694</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1653478.312595673</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1651544.9634478</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1649952.893628123</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1648595.028446163</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1647658.98852965</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1646883.553570262</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1646218.999141427</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1645604.094714943</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5053315.053487329</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5416495.172004994</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5255124.430094944</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5317402.904471462</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5461119.645499012</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5815724.306027442</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5645958.433866408</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5700018.313735263</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5835689.283742948</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6182417.362546396</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6004940.540183427</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6051451.618415639</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>696203.6135579293</v>
-      </c>
-      <c r="C67" t="n">
-        <v>677423.6160029732</v>
-      </c>
-      <c r="D67" t="n">
-        <v>631136.4515249114</v>
-      </c>
-      <c r="E67" t="n">
-        <v>646027.0751670157</v>
-      </c>
-      <c r="F67" t="n">
-        <v>696451.9802646395</v>
-      </c>
-      <c r="G67" t="n">
-        <v>677666.8364195332</v>
-      </c>
-      <c r="H67" t="n">
-        <v>631374.6322851881</v>
-      </c>
-      <c r="I67" t="n">
-        <v>646260.3206953653</v>
-      </c>
-      <c r="J67" t="n">
-        <v>696680.3928216903</v>
-      </c>
-      <c r="K67" t="n">
-        <v>677890.5161470189</v>
-      </c>
-      <c r="L67" t="n">
-        <v>631593.6772498523</v>
-      </c>
-      <c r="M67" t="n">
-        <v>646474.8269319568</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3064080.671297997</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3310612.999866167</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2833661.816956162</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3482034.217624271</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3396132.324569782</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3636023.620072518</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3152564.224758385</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3794558.57727045</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3702406.197023037</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3936172.015076707</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3446709.651862491</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4082821.095832474</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3058500.560914752</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3162021.25309435</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3263226.847724125</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3362624.206270766</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3459960.399594628</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3555451.888263131</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3648788.863586783</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3740474.97534548</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3830254.146946569</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3918339.754453581</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4004418.966363261</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4088992.470098068</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7470657.5535513</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7471660.126989415</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7472305.214813972</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7473213.12550007</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7473171.897606456</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7474121.814589001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7474715.34871173</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7475572.785355407</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7475482.140468094</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7476383.675368503</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7476929.840647101</v>
-      </c>
-      <c r="M70" t="n">
-        <v>7477740.900464997</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20721704.31617974</v>
-      </c>
-      <c r="C71" t="n">
-        <v>25434114.24034713</v>
-      </c>
-      <c r="D71" t="n">
-        <v>21283832.31819364</v>
-      </c>
-      <c r="E71" t="n">
-        <v>24387544.40566169</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24459703.53264339</v>
-      </c>
-      <c r="G71" t="n">
-        <v>29097270.20888629</v>
-      </c>
-      <c r="H71" t="n">
-        <v>24873643.5708934</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27905479.47058576</v>
-      </c>
-      <c r="J71" t="n">
-        <v>27907201.53458288</v>
-      </c>
-      <c r="K71" t="n">
-        <v>32475741.45808011</v>
-      </c>
-      <c r="L71" t="n">
-        <v>28184470.13996116</v>
-      </c>
-      <c r="M71" t="n">
-        <v>31150015.75990912</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4589462.991770386</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2822660.776330837</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5132722.096231604</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2418556.810863705</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4661827.954337053</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2893326.280409057</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5201728.052837033</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2485942.193719808</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4727630.821886987</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2957583.797310618</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5264476.510952801</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2547217.032614346</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9285969.895935642</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9509300.663659096</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9728623.400686851</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9944058.970342999</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10154714.43122611</v>
-      </c>
-      <c r="G73" t="n">
-        <v>10360550.76872005</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10562731.37136203</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10761370.00808326</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10955566.78595344</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11145275.87881472</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11331654.00083068</v>
-      </c>
-      <c r="M73" t="n">
-        <v>11514808.38096474</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16715546.25012761</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18010826.86838319</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15070098.10885296</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16977079.95841096</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16816413.39031356</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18109673.24220188</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15166964.2002192</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17072005.4401872</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16909437.14055845</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18200833.36009331</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15256298.02165839</v>
-      </c>
-      <c r="M74" t="n">
-        <v>17159549.55309009</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24324136.89550789</v>
-      </c>
-      <c r="C75" t="n">
-        <v>24859852.93070365</v>
-      </c>
-      <c r="D75" t="n">
-        <v>24010207.93139821</v>
-      </c>
-      <c r="E75" t="n">
-        <v>24715119.54632292</v>
-      </c>
-      <c r="F75" t="n">
-        <v>25649626.03548243</v>
-      </c>
-      <c r="G75" t="n">
-        <v>26121035.25934236</v>
-      </c>
-      <c r="H75" t="n">
-        <v>25210203.32789094</v>
-      </c>
-      <c r="I75" t="n">
-        <v>25856896.52725956</v>
-      </c>
-      <c r="J75" t="n">
-        <v>26736009.09829003</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27154711.86945148</v>
-      </c>
-      <c r="L75" t="n">
-        <v>26193730.56691594</v>
-      </c>
-      <c r="M75" t="n">
-        <v>26792707.41863886</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>14755182.97530306</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15511569.26435551</v>
-      </c>
-      <c r="D76" t="n">
-        <v>16116011.45008052</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16600462.04600813</v>
-      </c>
-      <c r="F76" t="n">
-        <v>16988075.81210956</v>
-      </c>
-      <c r="G76" t="n">
-        <v>17297883.53380072</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17545062.86563669</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17743703.17845307</v>
-      </c>
-      <c r="J76" t="n">
-        <v>17902668.71806551</v>
-      </c>
-      <c r="K76" t="n">
-        <v>18029557.85856548</v>
-      </c>
-      <c r="L76" t="n">
-        <v>18130402.32544849</v>
-      </c>
-      <c r="M76" t="n">
-        <v>18211974.74630251</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17433464.0285216</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18287703.87942672</v>
-      </c>
-      <c r="D77" t="n">
-        <v>19125528.77063322</v>
-      </c>
-      <c r="E77" t="n">
-        <v>19947267.60622958</v>
-      </c>
-      <c r="F77" t="n">
-        <v>20750645.41134212</v>
-      </c>
-      <c r="G77" t="n">
-        <v>21538517.04175744</v>
-      </c>
-      <c r="H77" t="n">
-        <v>22311301.56892293</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23069301.32995366</v>
-      </c>
-      <c r="J77" t="n">
-        <v>23810215.31453898</v>
-      </c>
-      <c r="K77" t="n">
-        <v>24536872.86393029</v>
-      </c>
-      <c r="L77" t="n">
-        <v>25249668.04551961</v>
-      </c>
-      <c r="M77" t="n">
-        <v>25948878.69263315</v>
+        <v>3677063.922878212</v>
       </c>
     </row>
   </sheetData>
